--- a/实验数据/实验数据.xlsx
+++ b/实验数据/实验数据.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="1.1" sheetId="8" r:id="rId8"/>
+    <sheet name="2.1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +59,34 @@
     <t>基于关键词位置的Fish Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>页面主题的PageRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键FishSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进后fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进后组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +96,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +109,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,17 +136,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,8 +488,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="249590592"/>
-        <c:axId val="249567528"/>
+        <c:axId val="334109536"/>
+        <c:axId val="333946032"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -675,7 +718,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249590592"/>
+        <c:axId val="334109536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249567528"/>
+        <c:crossAx val="333946032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249567528"/>
+        <c:axId val="333946032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249590592"/>
+        <c:crossAx val="334109536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,6 +950,825 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>查准率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于页面主题的Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67222222222222228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="337176880"/>
+        <c:axId val="337177272"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fish Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.125</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15333333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.20499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.29333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.28857142857142859</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.31125000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.34444444444444444</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.39900000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>基于关键词位置的Fish Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$H$2:$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.505</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.53600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.58333333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.58285714285714285</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.58499999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.60444444444444445</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.60799999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337176880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337177272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337177272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>查准率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337176880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1013,6 +1875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1296,8 +2159,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="309659496"/>
-        <c:axId val="309660152"/>
+        <c:axId val="333917248"/>
+        <c:axId val="333696280"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1410,7 +2273,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="309659496"/>
+        <c:axId val="333917248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,6 +2319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1522,7 +2386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309660152"/>
+        <c:crossAx val="333696280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309660152"/>
+        <c:axId val="333696280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,6 +2426,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1628,7 +2493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309659496"/>
+        <c:crossAx val="333917248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,6 +2507,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2071,11 +2937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250245112"/>
-        <c:axId val="250253688"/>
+        <c:axId val="333765128"/>
+        <c:axId val="246827744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250245112"/>
+        <c:axId val="333765128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +3054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250253688"/>
+        <c:crossAx val="246827744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250253688"/>
+        <c:axId val="246827744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +3161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250245112"/>
+        <c:crossAx val="333765128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2818,11 +3684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250267016"/>
-        <c:axId val="249766656"/>
+        <c:axId val="333758256"/>
+        <c:axId val="334152056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250267016"/>
+        <c:axId val="333758256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +3800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249766656"/>
+        <c:crossAx val="334152056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2942,7 +3808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249766656"/>
+        <c:axId val="334152056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250267016"/>
+        <c:crossAx val="333758256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3623,11 +4489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="249975408"/>
-        <c:axId val="250020120"/>
+        <c:axId val="246568504"/>
+        <c:axId val="334657992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249975408"/>
+        <c:axId val="246568504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3739,7 +4605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250020120"/>
+        <c:crossAx val="334657992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3747,7 +4613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250020120"/>
+        <c:axId val="334657992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +4711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249975408"/>
+        <c:crossAx val="246568504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4430,11 +5296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="309669856"/>
-        <c:axId val="309670248"/>
+        <c:axId val="246242192"/>
+        <c:axId val="246241800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="309669856"/>
+        <c:axId val="246242192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +5412,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309670248"/>
+        <c:crossAx val="246241800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4554,7 +5420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309670248"/>
+        <c:axId val="246241800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +5518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309669856"/>
+        <c:crossAx val="246242192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4732,7 +5598,2026 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="246243368"/>
+        <c:axId val="246243760"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="246243368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246243760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246243760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>与主题相关页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246243368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31125000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="246242584"/>
+        <c:axId val="246244544"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="246242584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246244544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246244544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>查准率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246242584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>抓取与主题相关页面数对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于页面主题的Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="337175704"/>
+        <c:axId val="337176096"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fish Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>249</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>399</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>基于关键词位置的Fish Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.1'!$C$2:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>268</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>468</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>544</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>608</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337175704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337176096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337176096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>与主题相关页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337175704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4972,6 +7857,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -5493,7 +8498,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6014,7 +9019,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6535,7 +9540,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7056,7 +10061,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7577,7 +10582,2091 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8316,6 +13405,144 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -8606,7 +13833,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8968,7 +14195,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9105,10 +14332,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9280,12 +14522,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9690,12 +14932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I15" sqref="F13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10148,12 +15390,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10356,4 +15598,860 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2/A2</f>
+        <v>0.09</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2/A2</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="0">B3/A3</f>
+        <v>0.125</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H11" si="1">C3/A3</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="3">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="3">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="3">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>268</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>176</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="3">
+        <v>202</v>
+      </c>
+      <c r="C8">
+        <v>408</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28857142857142859</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="3">
+        <v>249</v>
+      </c>
+      <c r="C9">
+        <v>468</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>800</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31125000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="3">
+        <v>310</v>
+      </c>
+      <c r="C10">
+        <v>544</v>
+      </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>900</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60444444444444445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>399</v>
+      </c>
+      <c r="C11">
+        <v>608</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="1">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.24599325396825397</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.50946349206349206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2349748</v>
+      </c>
+      <c r="B14">
+        <v>3683887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1835820</v>
+      </c>
+      <c r="B15">
+        <v>3584032</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1752626</v>
+      </c>
+      <c r="D15" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <f>A15/1000</f>
+        <v>1835.82</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B15/1000</f>
+        <v>3584.0320000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="B16:D16" si="2">C15/1000</f>
+        <v>1752.626</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>608</v>
+      </c>
+      <c r="B17" s="4">
+        <v>399</v>
+      </c>
+      <c r="C17" s="4">
+        <v>800</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="B17:D17" si="3">D15/60</f>
+        <v>13.166666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f>A17/A16</f>
+        <v>0.33118715342462768</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:D18" si="4">B17/B16</f>
+        <v>0.11132713100775886</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45645790944559766</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B2/A2</f>
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="1">
+        <f>C2/A2</f>
+        <v>0.32</v>
+      </c>
+      <c r="J2" s="5">
+        <f>D2/A2</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="1">
+        <f>B3/A3</f>
+        <v>0.505</v>
+      </c>
+      <c r="I3" s="1">
+        <f>C3/A3</f>
+        <v>0.34</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J12" si="0">D3/A3</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="3">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>129</v>
+      </c>
+      <c r="D4" s="3">
+        <v>166</v>
+      </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4" s="1">
+        <f>B4/A4</f>
+        <v>0.46</v>
+      </c>
+      <c r="I4" s="1">
+        <f>C4/A4</f>
+        <v>0.43</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="3">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+      <c r="D5" s="3">
+        <v>232</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5" s="1">
+        <f>B5/A5</f>
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5/A5</f>
+        <v>0.505</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="3">
+        <v>203</v>
+      </c>
+      <c r="C6">
+        <v>268</v>
+      </c>
+      <c r="D6" s="3">
+        <v>296</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6" s="1">
+        <f>B6/A6</f>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <f>C6/A6</f>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7" s="3">
+        <v>374</v>
+      </c>
+      <c r="E7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7" s="1">
+        <f>B7/A7</f>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="I7" s="1">
+        <f>C7/A7</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="3">
+        <v>252</v>
+      </c>
+      <c r="C8">
+        <v>408</v>
+      </c>
+      <c r="D8" s="3">
+        <v>448</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8" s="1">
+        <f>B8/A8</f>
+        <v>0.36</v>
+      </c>
+      <c r="I8" s="1">
+        <f>C8/A8</f>
+        <v>0.58285714285714285</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="3">
+        <v>280</v>
+      </c>
+      <c r="C9">
+        <v>468</v>
+      </c>
+      <c r="D9" s="3">
+        <v>530</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9" s="1">
+        <f>B9/A9</f>
+        <v>0.35</v>
+      </c>
+      <c r="I9" s="1">
+        <f>C9/A9</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66249999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="3">
+        <v>305</v>
+      </c>
+      <c r="C10">
+        <v>544</v>
+      </c>
+      <c r="D10" s="3">
+        <v>605</v>
+      </c>
+      <c r="E10">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10" s="1">
+        <f>B10/A10</f>
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="I10" s="1">
+        <f>C10/A10</f>
+        <v>0.60444444444444445</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67222222222222228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>319</v>
+      </c>
+      <c r="C11">
+        <v>608</v>
+      </c>
+      <c r="D11" s="3">
+        <v>676</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <f>B11/A11</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <f>C11/A11</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="1">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.41497222222222224</v>
+      </c>
+      <c r="I12" s="1">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.50946349206349206</v>
+      </c>
+      <c r="J12" s="1">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.61143888888888887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2349748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1835820</v>
+      </c>
+      <c r="B15">
+        <v>710</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1752626</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <f>A15/1000</f>
+        <v>1835.82</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" ref="B16:E16" si="1">B15/1000</f>
+        <v>0.71</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>1752.626</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>608</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:E17" si="2">B15/60</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="C17" s="4">
+        <v>612</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>13.166666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f>A17/A16</f>
+        <v>0.33118715342462768</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:E18" si="3">B17/B16</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3491903007258822</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/实验数据/实验数据.xlsx
+++ b/实验数据/实验数据.xlsx
@@ -488,8 +488,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334109536"/>
-        <c:axId val="333946032"/>
+        <c:axId val="277773328"/>
+        <c:axId val="277720416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -718,7 +718,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334109536"/>
+        <c:axId val="277773328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333946032"/>
+        <c:crossAx val="277720416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333946032"/>
+        <c:axId val="277720416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334109536"/>
+        <c:crossAx val="277773328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,63 +1030,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>查准率</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1094,7 +1038,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$H$1</c:f>
@@ -1131,6 +1075,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$H$2:$H$11</c:f>
@@ -1138,34 +1121,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.505</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.21666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41749999999999998</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39333333333333331</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36</c:v>
+                  <c:v>0.1357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>0.1225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33888888888888891</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31900000000000001</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1157,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$I$1</c:f>
@@ -1189,26 +1172,67 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$I$2:$I$11</c:f>
@@ -1252,7 +1276,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$J$1</c:f>
@@ -1267,26 +1291,67 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$J$2:$J$11</c:f>
@@ -1338,203 +1403,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337176880"/>
-        <c:axId val="337177272"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fish Search</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="diamond"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$G$2:$G$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.125</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.15333333333333332</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.20499999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.29333333333333333</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.28857142857142859</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.31125000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.34444444444444444</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.39900000000000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>基于关键词位置的Fish Search</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="square"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$H$2:$H$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>0.32</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.34</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.505</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.53600000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.58333333333333337</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.58285714285714285</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.58499999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.60444444444444445</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.60799999999999998</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="278525728"/>
+        <c:axId val="278526120"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337176880"/>
+        <c:axId val="278525728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337177272"/>
+        <c:crossAx val="278526120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1655,7 +1529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337177272"/>
+        <c:axId val="278526120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337176880"/>
+        <c:crossAx val="278525728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,7 +1749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2159,8 +2032,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333917248"/>
-        <c:axId val="333696280"/>
+        <c:axId val="277870160"/>
+        <c:axId val="277878736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2273,7 +2146,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333917248"/>
+        <c:axId val="277870160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2192,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2386,7 +2258,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333696280"/>
+        <c:crossAx val="277878736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333696280"/>
+        <c:axId val="277878736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2493,7 +2364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333917248"/>
+        <c:crossAx val="277870160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2507,7 +2378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2614,7 +2484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2937,11 +2806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333765128"/>
-        <c:axId val="246827744"/>
+        <c:axId val="277858384"/>
+        <c:axId val="278580600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333765128"/>
+        <c:axId val="277858384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3054,7 +2922,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246827744"/>
+        <c:crossAx val="278580600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +2930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246827744"/>
+        <c:axId val="278580600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +2962,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3161,7 +3028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333765128"/>
+        <c:crossAx val="277858384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3175,7 +3042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3684,11 +3550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333758256"/>
-        <c:axId val="334152056"/>
+        <c:axId val="277534128"/>
+        <c:axId val="278144520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333758256"/>
+        <c:axId val="277534128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3666,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334152056"/>
+        <c:crossAx val="278144520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3808,7 +3674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334152056"/>
+        <c:axId val="278144520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333758256"/>
+        <c:crossAx val="277534128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,11 +4355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246568504"/>
-        <c:axId val="334657992"/>
+        <c:axId val="214039296"/>
+        <c:axId val="278137184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246568504"/>
+        <c:axId val="214039296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4605,7 +4471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334657992"/>
+        <c:crossAx val="278137184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4613,7 +4479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334657992"/>
+        <c:axId val="278137184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,7 +4577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246568504"/>
+        <c:crossAx val="214039296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5296,11 +5162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246242192"/>
-        <c:axId val="246241800"/>
+        <c:axId val="213215088"/>
+        <c:axId val="278523376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246242192"/>
+        <c:axId val="213215088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,7 +5278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246241800"/>
+        <c:crossAx val="278523376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5420,7 +5286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246241800"/>
+        <c:axId val="278523376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5384,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246242192"/>
+        <c:crossAx val="213215088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5866,12 +5732,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246243368"/>
-        <c:axId val="246243760"/>
+        <c:axId val="213213912"/>
+        <c:axId val="213213520"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246243368"/>
+        <c:axId val="213213912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5984,7 +5850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246243760"/>
+        <c:crossAx val="213213520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5992,7 +5858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246243760"/>
+        <c:axId val="213213520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6091,7 +5957,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246243368"/>
+        <c:crossAx val="213213912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6231,6 +6097,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.1'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1.1'!$G$2:$G$11</c:f>
@@ -6311,6 +6216,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.1'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1.1'!$H$2:$H$11</c:f>
@@ -6362,12 +6306,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246242584"/>
-        <c:axId val="246244544"/>
+        <c:axId val="213214696"/>
+        <c:axId val="213212736"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246242584"/>
+        <c:axId val="213214696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6424,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246244544"/>
+        <c:crossAx val="213212736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6488,7 +6432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246244544"/>
+        <c:axId val="213212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,7 +6531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246242584"/>
+        <c:crossAx val="213214696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6682,63 +6626,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>抓取与主题相关页面数对比</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -6746,7 +6634,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$B$1</c:f>
@@ -6783,6 +6671,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$B$2:$B$11</c:f>
@@ -6790,34 +6717,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>236</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>252</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>319</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6826,7 +6753,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$C$1</c:f>
@@ -6841,26 +6768,67 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$C$2:$C$11</c:f>
@@ -6904,7 +6872,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'2.1'!$D$1</c:f>
@@ -6919,26 +6887,67 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'2.1'!$D$2:$D$11</c:f>
@@ -6990,293 +6999,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337175704"/>
-        <c:axId val="337176096"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fish Search</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="diamond"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>600</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>800</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>900</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$B$2:$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>176</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>202</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>249</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>399</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>基于关键词位置的Fish Search</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="square"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>600</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>800</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>900</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'1.1'!$C$2:$C$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>129</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>202</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>268</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>408</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>468</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>544</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>608</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="278524552"/>
+        <c:axId val="278524944"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337175704"/>
+        <c:axId val="278524552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7389,7 +7117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337176096"/>
+        <c:crossAx val="278524944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7397,7 +7125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337176096"/>
+        <c:axId val="278524944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7496,7 +7224,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337175704"/>
+        <c:crossAx val="278524552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13484,8 +13212,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -13517,7 +13245,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -14936,7 +14664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I15" sqref="F13:I15"/>
     </sheetView>
   </sheetViews>
@@ -15604,8 +15332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15937,7 +15665,7 @@
         <v>3584.0320000000002</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="B16:D16" si="2">C15/1000</f>
+        <f t="shared" ref="C16:D16" si="2">C15/1000</f>
         <v>1752.626</v>
       </c>
       <c r="D16" s="3">
@@ -15956,7 +15684,7 @@
         <v>800</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="B17:D17" si="3">D15/60</f>
+        <f t="shared" ref="D17" si="3">D15/60</f>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -15990,8 +15718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16033,7 +15761,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="3">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -16045,11 +15773,11 @@
         <v>100</v>
       </c>
       <c r="H2" s="1">
-        <f>B2/A2</f>
-        <v>0.6</v>
+        <f t="shared" ref="H2:H11" si="0">B2/A2</f>
+        <v>0.23</v>
       </c>
       <c r="I2" s="1">
-        <f>C2/A2</f>
+        <f t="shared" ref="I2:I11" si="1">C2/A2</f>
         <v>0.32</v>
       </c>
       <c r="J2" s="5">
@@ -16062,7 +15790,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="3">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -16077,15 +15805,15 @@
         <v>200</v>
       </c>
       <c r="H3" s="1">
-        <f>B3/A3</f>
-        <v>0.505</v>
+        <f t="shared" si="0"/>
+        <v>0.23</v>
       </c>
       <c r="I3" s="1">
-        <f>C3/A3</f>
+        <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J12" si="0">D3/A3</f>
+        <f t="shared" ref="J3:J11" si="2">D3/A3</f>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -16094,7 +15822,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="3">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>129</v>
@@ -16109,15 +15837,15 @@
         <v>300</v>
       </c>
       <c r="H4" s="1">
-        <f>B4/A4</f>
-        <v>0.46</v>
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I4" s="1">
-        <f>C4/A4</f>
+        <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55333333333333334</v>
       </c>
     </row>
@@ -16126,7 +15854,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="3">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>202</v>
@@ -16141,15 +15869,15 @@
         <v>400</v>
       </c>
       <c r="H5" s="1">
-        <f>B5/A5</f>
-        <v>0.41749999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.19</v>
       </c>
       <c r="I5" s="1">
-        <f>C5/A5</f>
+        <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -16158,7 +15886,7 @@
         <v>500</v>
       </c>
       <c r="B6" s="3">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>268</v>
@@ -16173,15 +15901,15 @@
         <v>500</v>
       </c>
       <c r="H6" s="1">
-        <f>B6/A6</f>
-        <v>0.40600000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.16400000000000001</v>
       </c>
       <c r="I6" s="1">
-        <f>C6/A6</f>
+        <f t="shared" si="1"/>
         <v>0.53600000000000003</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.59199999999999997</v>
       </c>
     </row>
@@ -16190,7 +15918,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="3">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>350</v>
@@ -16205,15 +15933,15 @@
         <v>600</v>
       </c>
       <c r="H7" s="1">
-        <f>B7/A7</f>
-        <v>0.39333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
       <c r="I7" s="1">
-        <f>C7/A7</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62333333333333329</v>
       </c>
     </row>
@@ -16222,7 +15950,7 @@
         <v>700</v>
       </c>
       <c r="B8" s="3">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>408</v>
@@ -16237,15 +15965,15 @@
         <v>700</v>
       </c>
       <c r="H8" s="1">
-        <f>B8/A8</f>
-        <v>0.36</v>
+        <f t="shared" si="0"/>
+        <v>0.1357142857142857</v>
       </c>
       <c r="I8" s="1">
-        <f>C8/A8</f>
+        <f t="shared" si="1"/>
         <v>0.58285714285714285</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
     </row>
@@ -16254,7 +15982,7 @@
         <v>800</v>
       </c>
       <c r="B9" s="3">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>468</v>
@@ -16269,15 +15997,15 @@
         <v>800</v>
       </c>
       <c r="H9" s="1">
-        <f>B9/A9</f>
-        <v>0.35</v>
+        <f t="shared" si="0"/>
+        <v>0.1225</v>
       </c>
       <c r="I9" s="1">
-        <f>C9/A9</f>
+        <f t="shared" si="1"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66249999999999998</v>
       </c>
     </row>
@@ -16286,7 +16014,7 @@
         <v>900</v>
       </c>
       <c r="B10" s="3">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>544</v>
@@ -16301,15 +16029,15 @@
         <v>900</v>
       </c>
       <c r="H10" s="1">
-        <f>B10/A10</f>
-        <v>0.33888888888888891</v>
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I10" s="1">
-        <f>C10/A10</f>
+        <f t="shared" si="1"/>
         <v>0.60444444444444445</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.67222222222222228</v>
       </c>
     </row>
@@ -16318,7 +16046,7 @@
         <v>1000</v>
       </c>
       <c r="B11" s="3">
-        <v>319</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>608</v>
@@ -16333,22 +16061,22 @@
         <v>1000</v>
       </c>
       <c r="H11" s="1">
-        <f>B11/A11</f>
-        <v>0.31900000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I11" s="1">
-        <f>C11/A11</f>
+        <f t="shared" si="1"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="1">
         <f>AVERAGE(H2:H11)</f>
-        <v>0.41497222222222224</v>
+        <v>0.16519920634920635</v>
       </c>
       <c r="I12" s="1">
         <f>AVERAGE(I2:I11)</f>
@@ -16399,16 +16127,16 @@
         <v>1835.82</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16:E16" si="1">B15/1000</f>
+        <f t="shared" ref="B16:E16" si="3">B15/1000</f>
         <v>0.71</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1752.626</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.79</v>
       </c>
     </row>
@@ -16417,7 +16145,7 @@
         <v>608</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:E17" si="2">B15/60</f>
+        <f t="shared" ref="B17:E17" si="4">B15/60</f>
         <v>11.833333333333334</v>
       </c>
       <c r="C17" s="4">
@@ -16425,7 +16153,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -16435,16 +16163,16 @@
         <v>0.33118715342462768</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:E18" si="3">B17/B16</f>
+        <f t="shared" ref="B18:E18" si="5">B17/B16</f>
         <v>16.666666666666668</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3491903007258822</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
     </row>

--- a/实验数据/实验数据.xlsx
+++ b/实验数据/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,18 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
     <sheet name="1.1" sheetId="8" r:id="rId8"/>
     <sheet name="2.1" sheetId="9" r:id="rId9"/>
+    <sheet name="1.2" sheetId="11" r:id="rId10"/>
+    <sheet name="2.2" sheetId="10" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,11 +81,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改进后组合</t>
+    <t>关键FishSearch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page</t>
+    <t>页面主题的PageRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总页面数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +159,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,8 +511,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277773328"/>
-        <c:axId val="277720416"/>
+        <c:axId val="312312960"/>
+        <c:axId val="312264536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -718,7 +741,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277773328"/>
+        <c:axId val="312312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277720416"/>
+        <c:crossAx val="312264536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277720416"/>
+        <c:axId val="312264536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +959,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277773328"/>
+        <c:crossAx val="312312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,12 +1426,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="278525728"/>
-        <c:axId val="278526120"/>
+        <c:axId val="245634032"/>
+        <c:axId val="245634424"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278525728"/>
+        <c:axId val="245634032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278526120"/>
+        <c:crossAx val="245634424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278526120"/>
+        <c:axId val="245634424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1651,2541 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278525728"/>
+        <c:crossAx val="245634032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.2'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.2'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="448677320"/>
+        <c:axId val="448677712"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448677320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448677712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448677712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>与主题相关页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448677320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.2'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8857142857142856E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1125E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4444444444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9899999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.2'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.2'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="448678496"/>
+        <c:axId val="450555256"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448678496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450555256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450555256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>查准率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448678496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于页面主题的Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6790</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="323732248"/>
+        <c:axId val="323732640"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="323732248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323732640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323732640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>与主题相关页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323732248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20614285714285716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16788888888888889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于关键词位置的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2.1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于页面主题的Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]2.1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]2.1'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="323733424"/>
+        <c:axId val="323733816"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="323733424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323733816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323733816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>查准率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323733424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,8 +4589,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277870160"/>
-        <c:axId val="277878736"/>
+        <c:axId val="312397704"/>
+        <c:axId val="312801792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2146,7 +4703,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277870160"/>
+        <c:axId val="312397704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +4815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277878736"/>
+        <c:crossAx val="312801792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2266,7 +4823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277878736"/>
+        <c:axId val="312801792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +4921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277870160"/>
+        <c:crossAx val="312397704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2806,11 +5363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277858384"/>
-        <c:axId val="278580600"/>
+        <c:axId val="312212896"/>
+        <c:axId val="312523992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277858384"/>
+        <c:axId val="312212896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +5479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278580600"/>
+        <c:crossAx val="312523992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2930,7 +5487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278580600"/>
+        <c:axId val="312523992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +5585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277858384"/>
+        <c:crossAx val="312212896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3550,11 +6107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277534128"/>
-        <c:axId val="278144520"/>
+        <c:axId val="313069336"/>
+        <c:axId val="313069720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277534128"/>
+        <c:axId val="313069336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +6223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278144520"/>
+        <c:crossAx val="313069720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3674,7 +6231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278144520"/>
+        <c:axId val="313069720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +6329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277534128"/>
+        <c:crossAx val="313069336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4355,11 +6912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214039296"/>
-        <c:axId val="278137184"/>
+        <c:axId val="312519632"/>
+        <c:axId val="312508528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214039296"/>
+        <c:axId val="312519632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +7028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278137184"/>
+        <c:crossAx val="312508528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4479,7 +7036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278137184"/>
+        <c:axId val="312508528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +7134,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214039296"/>
+        <c:crossAx val="312519632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5162,11 +7719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213215088"/>
-        <c:axId val="278523376"/>
+        <c:axId val="245631288"/>
+        <c:axId val="245631680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213215088"/>
+        <c:axId val="245631288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +7835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278523376"/>
+        <c:crossAx val="245631680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5286,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278523376"/>
+        <c:axId val="245631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5384,7 +7941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213215088"/>
+        <c:crossAx val="245631288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5732,12 +8289,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213213912"/>
-        <c:axId val="213213520"/>
+        <c:axId val="245630504"/>
+        <c:axId val="245632464"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213213912"/>
+        <c:axId val="245630504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +8407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213213520"/>
+        <c:crossAx val="245632464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5858,7 +8415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213213520"/>
+        <c:axId val="245632464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5957,7 +8514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213213912"/>
+        <c:crossAx val="245630504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6306,12 +8863,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213214696"/>
-        <c:axId val="213212736"/>
+        <c:axId val="245630112"/>
+        <c:axId val="245629720"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213214696"/>
+        <c:axId val="245630112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6424,7 +8981,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213212736"/>
+        <c:crossAx val="245629720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6432,7 +8989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213212736"/>
+        <c:axId val="245629720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,7 +9088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213214696"/>
+        <c:crossAx val="245630112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6999,12 +9556,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="278524552"/>
-        <c:axId val="278524944"/>
+        <c:axId val="245628936"/>
+        <c:axId val="245633248"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278524552"/>
+        <c:axId val="245628936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,7 +9674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278524944"/>
+        <c:crossAx val="245633248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7125,7 +9682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278524944"/>
+        <c:axId val="245633248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7224,7 +9781,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278524552"/>
+        <c:crossAx val="245628936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7346,6 +9903,166 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8747,6 +11464,2090 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -12942,6 +17743,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13271,6 +18141,385 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="1.1"/>
+      <sheetName val="2.1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Page Rank</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>基于关键词位置的Fish Search</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>基于页面主题的Page Rank</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Page Rank</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>基于关键词位置的Fish Search</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>基于页面主题的Page Rank</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1000</v>
+          </cell>
+          <cell r="B2">
+            <v>295</v>
+          </cell>
+          <cell r="C2">
+            <v>692</v>
+          </cell>
+          <cell r="D2">
+            <v>961</v>
+          </cell>
+          <cell r="G2">
+            <v>1000</v>
+          </cell>
+          <cell r="H2">
+            <v>0.29499999999999998</v>
+          </cell>
+          <cell r="I2">
+            <v>0.69199999999999995</v>
+          </cell>
+          <cell r="J2">
+            <v>0.96099999999999997</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2000</v>
+          </cell>
+          <cell r="B3">
+            <v>360</v>
+          </cell>
+          <cell r="C3">
+            <v>1700</v>
+          </cell>
+          <cell r="D3">
+            <v>1926</v>
+          </cell>
+          <cell r="G3">
+            <v>2000</v>
+          </cell>
+          <cell r="H3">
+            <v>0.18</v>
+          </cell>
+          <cell r="I3">
+            <v>0.85</v>
+          </cell>
+          <cell r="J3">
+            <v>0.96299999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3000</v>
+          </cell>
+          <cell r="B4">
+            <v>411</v>
+          </cell>
+          <cell r="C4">
+            <v>2700</v>
+          </cell>
+          <cell r="D4">
+            <v>2895</v>
+          </cell>
+          <cell r="G4">
+            <v>3000</v>
+          </cell>
+          <cell r="H4">
+            <v>0.13700000000000001</v>
+          </cell>
+          <cell r="I4">
+            <v>0.9</v>
+          </cell>
+          <cell r="J4">
+            <v>0.96499999999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4000</v>
+          </cell>
+          <cell r="B5">
+            <v>924</v>
+          </cell>
+          <cell r="C5">
+            <v>3720</v>
+          </cell>
+          <cell r="D5">
+            <v>3824</v>
+          </cell>
+          <cell r="G5">
+            <v>4000</v>
+          </cell>
+          <cell r="H5">
+            <v>0.23100000000000001</v>
+          </cell>
+          <cell r="I5">
+            <v>0.93</v>
+          </cell>
+          <cell r="J5">
+            <v>0.95599999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5000</v>
+          </cell>
+          <cell r="B6">
+            <v>1121</v>
+          </cell>
+          <cell r="C6">
+            <v>4670</v>
+          </cell>
+          <cell r="D6">
+            <v>4770</v>
+          </cell>
+          <cell r="G6">
+            <v>5000</v>
+          </cell>
+          <cell r="H6">
+            <v>0.22420000000000001</v>
+          </cell>
+          <cell r="I6">
+            <v>0.93400000000000005</v>
+          </cell>
+          <cell r="J6">
+            <v>0.95399999999999996</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6000</v>
+          </cell>
+          <cell r="B7">
+            <v>1201</v>
+          </cell>
+          <cell r="C7">
+            <v>5652</v>
+          </cell>
+          <cell r="D7">
+            <v>5778</v>
+          </cell>
+          <cell r="G7">
+            <v>6000</v>
+          </cell>
+          <cell r="H7">
+            <v>0.20016666666666666</v>
+          </cell>
+          <cell r="I7">
+            <v>0.94199999999999995</v>
+          </cell>
+          <cell r="J7">
+            <v>0.96299999999999997</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7000</v>
+          </cell>
+          <cell r="B8">
+            <v>1443</v>
+          </cell>
+          <cell r="C8">
+            <v>6657</v>
+          </cell>
+          <cell r="D8">
+            <v>6790</v>
+          </cell>
+          <cell r="G8">
+            <v>7000</v>
+          </cell>
+          <cell r="H8">
+            <v>0.20614285714285716</v>
+          </cell>
+          <cell r="I8">
+            <v>0.95099999999999996</v>
+          </cell>
+          <cell r="J8">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8000</v>
+          </cell>
+          <cell r="B9">
+            <v>1496</v>
+          </cell>
+          <cell r="C9">
+            <v>7704</v>
+          </cell>
+          <cell r="D9">
+            <v>7712</v>
+          </cell>
+          <cell r="G9">
+            <v>8000</v>
+          </cell>
+          <cell r="H9">
+            <v>0.187</v>
+          </cell>
+          <cell r="I9">
+            <v>0.96299999999999997</v>
+          </cell>
+          <cell r="J9">
+            <v>0.96399999999999997</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9000</v>
+          </cell>
+          <cell r="B10">
+            <v>1511</v>
+          </cell>
+          <cell r="C10">
+            <v>8667</v>
+          </cell>
+          <cell r="D10">
+            <v>8757</v>
+          </cell>
+          <cell r="G10">
+            <v>9000</v>
+          </cell>
+          <cell r="H10">
+            <v>0.16788888888888889</v>
+          </cell>
+          <cell r="I10">
+            <v>0.96299999999999997</v>
+          </cell>
+          <cell r="J10">
+            <v>0.97299999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10000</v>
+          </cell>
+          <cell r="B11">
+            <v>1512</v>
+          </cell>
+          <cell r="C11">
+            <v>9703</v>
+          </cell>
+          <cell r="D11">
+            <v>9640</v>
+          </cell>
+          <cell r="G11">
+            <v>10000</v>
+          </cell>
+          <cell r="H11">
+            <v>0.1512</v>
+          </cell>
+          <cell r="I11">
+            <v>0.97030000000000005</v>
+          </cell>
+          <cell r="J11">
+            <v>0.96399999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -13918,6 +19167,843 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="20" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>692</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="7">
+        <f>B2/A2</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" s="7">
+        <f>C2/A2</f>
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="9">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="6">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G11" si="0">B3/A3</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H11" si="1">C3/A3</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="9">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2700</v>
+      </c>
+      <c r="D4" s="6">
+        <v>61</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="9">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3720</v>
+      </c>
+      <c r="D5" s="6">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="9">
+        <v>125</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4670</v>
+      </c>
+      <c r="D6" s="6">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="B7" s="9">
+        <v>176</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5652</v>
+      </c>
+      <c r="D7" s="6">
+        <v>82</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>7000</v>
+      </c>
+      <c r="B8" s="9">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6657</v>
+      </c>
+      <c r="D8" s="6">
+        <v>58</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8857142857142856E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>8000</v>
+      </c>
+      <c r="B9" s="9">
+        <v>249</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7704</v>
+      </c>
+      <c r="D9" s="6">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1125E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="B10" s="9">
+        <v>310</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8667</v>
+      </c>
+      <c r="D10" s="6">
+        <v>76</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4444444444444444E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="9">
+        <v>399</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9703</v>
+      </c>
+      <c r="D11" s="6">
+        <v>64</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="7">
+        <f>AVERAGE(G2:G11)</f>
+        <v>2.4599325396825394E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.90952999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>2349748</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3683887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>1835820</v>
+      </c>
+      <c r="B15" s="6">
+        <v>35840320</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <f>A15/1000</f>
+        <v>1835.82</v>
+      </c>
+      <c r="B16" s="9">
+        <f>B15/1000</f>
+        <v>35840.32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>9703</v>
+      </c>
+      <c r="B17" s="10">
+        <v>6990</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <f>A17/A16</f>
+        <v>5.2853765619723072</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" ref="B18:D18" si="2">B17/B16</f>
+        <v>0.19503174078802868</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="10.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>295</v>
+      </c>
+      <c r="C2" s="6">
+        <v>692</v>
+      </c>
+      <c r="D2" s="9">
+        <v>961</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H11" si="0">B2/A2</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" ref="I2:I11" si="1">C2/A2</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J2" s="11">
+        <f>D2/A2</f>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="9">
+        <v>360</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1926</v>
+      </c>
+      <c r="E3" s="6">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J11" si="2">D3/A3</f>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="9">
+        <v>411</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2700</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2895</v>
+      </c>
+      <c r="E4" s="6">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="9">
+        <v>924</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3720</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3824</v>
+      </c>
+      <c r="E5" s="6">
+        <v>73</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1121</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4670</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4770</v>
+      </c>
+      <c r="E6" s="6">
+        <v>66</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1201</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5652</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5778</v>
+      </c>
+      <c r="E7" s="6">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20016666666666666</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>7000</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1443</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6657</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6790</v>
+      </c>
+      <c r="E8" s="6">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7000</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20614285714285716</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>8000</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1496</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7704</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7712</v>
+      </c>
+      <c r="E9" s="6">
+        <v>60</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8000</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.187</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1511</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8667</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8757</v>
+      </c>
+      <c r="E10" s="6">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16788888888888889</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1512</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9703</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9640</v>
+      </c>
+      <c r="E11" s="6">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1512</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="7">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.19795984126984129</v>
+      </c>
+      <c r="I12" s="7">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.90952999999999995</v>
+      </c>
+      <c r="J12" s="7">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>2349748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>18358200</v>
+      </c>
+      <c r="C15" s="9">
+        <v>17526260</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>23497500</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <f>A15/1000</f>
+        <v>18358.2</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <f t="shared" ref="B16:E16" si="3">C15/1000</f>
+        <v>17526.259999999998</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="3"/>
+        <v>23497.5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>9703</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
+        <v>9640</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>1512</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <f>A17/A16</f>
+        <v>0.5285376561972307</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
+        <f t="shared" ref="B18:E18" si="4">C17/C16</f>
+        <v>0.55003178088194515</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="4"/>
+        <v>6.4347270986275129E-2</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
@@ -15332,8 +21418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15621,16 +21707,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -15648,12 +21728,8 @@
       <c r="B15">
         <v>3584032</v>
       </c>
-      <c r="C15" s="3">
-        <v>1752626</v>
-      </c>
-      <c r="D15" s="3">
-        <v>790</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -15664,14 +21740,8 @@
         <f>B15/1000</f>
         <v>3584.0320000000002</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:D16" si="2">C15/1000</f>
-        <v>1752.626</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.79</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -15680,13 +21750,8 @@
       <c r="B17" s="4">
         <v>399</v>
       </c>
-      <c r="C17" s="4">
-        <v>800</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17" si="3">D15/60</f>
-        <v>13.166666666666666</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -15694,17 +21759,11 @@
         <v>0.33118715342462768</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:D18" si="4">B17/B16</f>
+        <f t="shared" ref="B18:D18" si="2">B17/B16</f>
         <v>0.11132713100775886</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45645790944559766</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="4"/>
-        <v>16.666666666666664</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15718,8 +21777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16091,13 +22150,10 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -16109,9 +22165,6 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>1835820</v>
-      </c>
-      <c r="B15">
-        <v>710</v>
       </c>
       <c r="C15" s="3">
         <v>1752626</v>
@@ -16126,12 +22179,9 @@
         <f>A15/1000</f>
         <v>1835.82</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" ref="B16:E16" si="3">B15/1000</f>
-        <v>0.71</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B16:E16" si="3">C15/1000</f>
         <v>1752.626</v>
       </c>
       <c r="D16" s="3"/>
@@ -16144,16 +22194,13 @@
       <c r="A17" s="4">
         <v>608</v>
       </c>
-      <c r="B17" s="4">
-        <f t="shared" ref="B17:E17" si="4">B15/60</f>
-        <v>11.833333333333334</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4">
         <v>612</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B17:E17" si="4">E15/60</f>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -16162,12 +22209,9 @@
         <f>A17/A16</f>
         <v>0.33118715342462768</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" ref="B18:E18" si="5">B17/B16</f>
-        <v>16.666666666666668</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B18:E18" si="5">C17/C16</f>
         <v>0.3491903007258822</v>
       </c>
       <c r="D18" s="2"/>

--- a/实验数据/实验数据.xlsx
+++ b/实验数据/实验数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>算法效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +519,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312312960"/>
-        <c:axId val="312264536"/>
+        <c:axId val="201134552"/>
+        <c:axId val="201439696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -741,7 +749,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312312960"/>
+        <c:axId val="201134552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312264536"/>
+        <c:crossAx val="201439696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -861,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312264536"/>
+        <c:axId val="201439696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +967,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312312960"/>
+        <c:crossAx val="201134552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,12 +1434,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245634032"/>
-        <c:axId val="245634424"/>
+        <c:axId val="142059408"/>
+        <c:axId val="142059016"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245634032"/>
+        <c:axId val="142059408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245634424"/>
+        <c:crossAx val="142059016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245634424"/>
+        <c:axId val="142059016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245634032"/>
+        <c:crossAx val="142059408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,34 +1845,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>1660</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202</c:v>
+                  <c:v>2457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249</c:v>
+                  <c:v>3064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>310</c:v>
+                  <c:v>3240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>399</c:v>
+                  <c:v>3720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,12 +2008,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448677320"/>
-        <c:axId val="448677712"/>
+        <c:axId val="142065288"/>
+        <c:axId val="142065680"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448677320"/>
+        <c:axId val="142065288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448677712"/>
+        <c:crossAx val="142065680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448677712"/>
+        <c:axId val="142065680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448677320"/>
+        <c:crossAx val="142065288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2411,34 +2419,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.24249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5333333333333332E-2</c:v>
+                  <c:v>0.30333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0500000000000001E-2</c:v>
+                  <c:v>0.31025000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9333333333333333E-2</c:v>
+                  <c:v>0.34033333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8857142857142856E-2</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1125E-2</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4444444444444444E-2</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9899999999999998E-2</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,12 +2582,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448678496"/>
-        <c:axId val="450555256"/>
+        <c:axId val="202459640"/>
+        <c:axId val="202460032"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448678496"/>
+        <c:axId val="202459640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450555256"/>
+        <c:crossAx val="202460032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450555256"/>
+        <c:axId val="202460032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448678496"/>
+        <c:crossAx val="202459640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3267,12 +3275,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323732248"/>
-        <c:axId val="323732640"/>
+        <c:axId val="202460816"/>
+        <c:axId val="202461208"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323732248"/>
+        <c:axId val="202460816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323732640"/>
+        <c:crossAx val="202461208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323732640"/>
+        <c:axId val="202461208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,7 +3500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323732248"/>
+        <c:crossAx val="202460816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3960,12 +3968,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323733424"/>
-        <c:axId val="323733816"/>
+        <c:axId val="202461992"/>
+        <c:axId val="202462384"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323733424"/>
+        <c:axId val="202461992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323733816"/>
+        <c:crossAx val="202462384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4086,7 +4094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323733816"/>
+        <c:axId val="202462384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323733424"/>
+        <c:crossAx val="202461992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,8 +4597,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312397704"/>
-        <c:axId val="312801792"/>
+        <c:axId val="142931280"/>
+        <c:axId val="201046864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4703,7 +4711,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312397704"/>
+        <c:axId val="142931280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,7 +4823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312801792"/>
+        <c:crossAx val="201046864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4823,7 +4831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312801792"/>
+        <c:axId val="201046864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,7 +4929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312397704"/>
+        <c:crossAx val="142931280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5363,11 +5371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312212896"/>
-        <c:axId val="312523992"/>
+        <c:axId val="200993192"/>
+        <c:axId val="201094472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312212896"/>
+        <c:axId val="200993192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,7 +5487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312523992"/>
+        <c:crossAx val="201094472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5487,7 +5495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312523992"/>
+        <c:axId val="201094472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,7 +5593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312212896"/>
+        <c:crossAx val="200993192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6107,11 +6115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="313069336"/>
-        <c:axId val="313069720"/>
+        <c:axId val="201654304"/>
+        <c:axId val="201654688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313069336"/>
+        <c:axId val="201654304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6223,7 +6231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313069720"/>
+        <c:crossAx val="201654688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6231,7 +6239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313069720"/>
+        <c:axId val="201654688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6329,7 +6337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313069336"/>
+        <c:crossAx val="201654304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6912,11 +6920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312519632"/>
-        <c:axId val="312508528"/>
+        <c:axId val="200768904"/>
+        <c:axId val="202211696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312519632"/>
+        <c:axId val="200768904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,7 +7036,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312508528"/>
+        <c:crossAx val="202211696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7036,7 +7044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312508528"/>
+        <c:axId val="202211696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7134,7 +7142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312519632"/>
+        <c:crossAx val="200768904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7719,11 +7727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245631288"/>
-        <c:axId val="245631680"/>
+        <c:axId val="142061368"/>
+        <c:axId val="142061760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245631288"/>
+        <c:axId val="142061368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7835,7 +7843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245631680"/>
+        <c:crossAx val="142061760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7843,7 +7851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245631680"/>
+        <c:axId val="142061760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7941,7 +7949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245631288"/>
+        <c:crossAx val="142061368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8289,12 +8297,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245630504"/>
-        <c:axId val="245632464"/>
+        <c:axId val="142062544"/>
+        <c:axId val="142062936"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245630504"/>
+        <c:axId val="142062544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8407,7 +8415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245632464"/>
+        <c:crossAx val="142062936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8415,7 +8423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245632464"/>
+        <c:axId val="142062936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8514,7 +8522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245630504"/>
+        <c:crossAx val="142062544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8863,12 +8871,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245630112"/>
-        <c:axId val="245629720"/>
+        <c:axId val="142063720"/>
+        <c:axId val="142064112"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245630112"/>
+        <c:axId val="142063720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,7 +8989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245629720"/>
+        <c:crossAx val="142064112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8989,7 +8997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245629720"/>
+        <c:axId val="142064112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,7 +9096,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245630112"/>
+        <c:crossAx val="142063720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9556,12 +9564,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245628936"/>
-        <c:axId val="245633248"/>
+        <c:axId val="142060976"/>
+        <c:axId val="142060192"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245628936"/>
+        <c:axId val="142060976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9674,7 +9682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245633248"/>
+        <c:crossAx val="142060192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9682,7 +9690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245633248"/>
+        <c:axId val="142060192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9781,7 +9789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245628936"/>
+        <c:crossAx val="142060976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19172,7 +19180,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19208,7 +19216,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="9">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6">
         <v>692</v>
@@ -19218,7 +19226,7 @@
       </c>
       <c r="G2" s="7">
         <f>B2/A2</f>
-        <v>8.9999999999999993E-3</v>
+        <v>0.13</v>
       </c>
       <c r="H2" s="7">
         <f>C2/A2</f>
@@ -19230,7 +19238,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="9">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="C3" s="6">
         <v>1700</v>
@@ -19243,7 +19251,7 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G11" si="0">B3/A3</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H11" si="1">C3/A3</f>
@@ -19255,7 +19263,7 @@
         <v>3000</v>
       </c>
       <c r="B4" s="9">
-        <v>46</v>
+        <v>910</v>
       </c>
       <c r="C4" s="6">
         <v>2700</v>
@@ -19268,7 +19276,7 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>1.5333333333333332E-2</v>
+        <v>0.30333333333333334</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="1"/>
@@ -19280,7 +19288,7 @@
         <v>4000</v>
       </c>
       <c r="B5" s="9">
-        <v>82</v>
+        <v>1241</v>
       </c>
       <c r="C5" s="6">
         <v>3720</v>
@@ -19293,7 +19301,7 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>2.0500000000000001E-2</v>
+        <v>0.31025000000000003</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
@@ -19305,7 +19313,7 @@
         <v>5000</v>
       </c>
       <c r="B6" s="9">
-        <v>125</v>
+        <v>1660</v>
       </c>
       <c r="C6" s="6">
         <v>4670</v>
@@ -19318,7 +19326,7 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
@@ -19330,7 +19338,7 @@
         <v>6000</v>
       </c>
       <c r="B7" s="9">
-        <v>176</v>
+        <v>2042</v>
       </c>
       <c r="C7" s="6">
         <v>5652</v>
@@ -19343,7 +19351,7 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>2.9333333333333333E-2</v>
+        <v>0.34033333333333332</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
@@ -19355,7 +19363,7 @@
         <v>7000</v>
       </c>
       <c r="B8" s="9">
-        <v>202</v>
+        <v>2457</v>
       </c>
       <c r="C8" s="6">
         <v>6657</v>
@@ -19368,7 +19376,7 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>2.8857142857142856E-2</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
@@ -19380,7 +19388,7 @@
         <v>8000</v>
       </c>
       <c r="B9" s="9">
-        <v>249</v>
+        <v>3064</v>
       </c>
       <c r="C9" s="6">
         <v>7704</v>
@@ -19393,7 +19401,7 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>3.1125E-2</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
@@ -19405,7 +19413,7 @@
         <v>9000</v>
       </c>
       <c r="B10" s="9">
-        <v>310</v>
+        <v>3240</v>
       </c>
       <c r="C10" s="6">
         <v>8667</v>
@@ -19418,7 +19426,7 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>3.4444444444444444E-2</v>
+        <v>0.36</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
@@ -19430,7 +19438,7 @@
         <v>10000</v>
       </c>
       <c r="B11" s="9">
-        <v>399</v>
+        <v>3720</v>
       </c>
       <c r="C11" s="6">
         <v>9703</v>
@@ -19443,7 +19451,7 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>3.9899999999999998E-2</v>
+        <v>0.372</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
@@ -19453,7 +19461,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G12" s="7">
         <f>AVERAGE(G2:G11)</f>
-        <v>2.4599325396825394E-2</v>
+        <v>0.31244166666666662</v>
       </c>
       <c r="H12" s="7">
         <f>AVERAGE(H2:H11)</f>
@@ -19468,37 +19476,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>2349748</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3683887</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>1835820</v>
+        <v>23865660</v>
       </c>
       <c r="B15" s="6">
-        <v>35840320</v>
+        <v>39424352</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <f>A15/1000</f>
-        <v>1835.82</v>
+        <f>A15/60000</f>
+        <v>397.76100000000002</v>
       </c>
       <c r="B16" s="9">
-        <f>B15/1000</f>
-        <v>35840.32</v>
+        <f>B15/60000</f>
+        <v>657.07253333333335</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -19507,7 +19507,7 @@
         <v>9703</v>
       </c>
       <c r="B17" s="10">
-        <v>6990</v>
+        <v>3720</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -19517,11 +19517,11 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>A17/A16</f>
-        <v>5.2853765619723072</v>
+        <v>24.394045670641415</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" ref="B18:D18" si="2">B17/B16</f>
-        <v>0.19503174078802868</v>
+        <f t="shared" ref="B18" si="2">B17/B16</f>
+        <v>5.6614754251382493</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
@@ -19531,7 +19531,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19539,8 +19540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19622,9 +19623,6 @@
       <c r="D3" s="9">
         <v>1926</v>
       </c>
-      <c r="E3" s="6">
-        <v>36</v>
-      </c>
       <c r="G3" s="6">
         <v>2000</v>
       </c>
@@ -19654,9 +19652,6 @@
       <c r="D4" s="9">
         <v>2895</v>
       </c>
-      <c r="E4" s="6">
-        <v>61</v>
-      </c>
       <c r="G4" s="6">
         <v>3000</v>
       </c>
@@ -19686,9 +19681,6 @@
       <c r="D5" s="9">
         <v>3824</v>
       </c>
-      <c r="E5" s="6">
-        <v>73</v>
-      </c>
       <c r="G5" s="6">
         <v>4000</v>
       </c>
@@ -19718,9 +19710,6 @@
       <c r="D6" s="9">
         <v>4770</v>
       </c>
-      <c r="E6" s="6">
-        <v>66</v>
-      </c>
       <c r="G6" s="6">
         <v>5000</v>
       </c>
@@ -19750,9 +19739,6 @@
       <c r="D7" s="9">
         <v>5778</v>
       </c>
-      <c r="E7" s="6">
-        <v>82</v>
-      </c>
       <c r="G7" s="6">
         <v>6000</v>
       </c>
@@ -19782,9 +19768,6 @@
       <c r="D8" s="9">
         <v>6790</v>
       </c>
-      <c r="E8" s="6">
-        <v>58</v>
-      </c>
       <c r="G8" s="6">
         <v>7000</v>
       </c>
@@ -19814,9 +19797,6 @@
       <c r="D9" s="9">
         <v>7712</v>
       </c>
-      <c r="E9" s="6">
-        <v>60</v>
-      </c>
       <c r="G9" s="6">
         <v>8000</v>
       </c>
@@ -19846,9 +19826,6 @@
       <c r="D10" s="9">
         <v>8757</v>
       </c>
-      <c r="E10" s="6">
-        <v>76</v>
-      </c>
       <c r="G10" s="6">
         <v>9000</v>
       </c>
@@ -19877,9 +19854,6 @@
       </c>
       <c r="D11" s="9">
         <v>9640</v>
-      </c>
-      <c r="E11" s="6">
-        <v>64</v>
       </c>
       <c r="G11" s="6">
         <v>10000</v>
@@ -19922,21 +19896,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>2349748</v>
-      </c>
-    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>18358200</v>
+        <v>23865660</v>
       </c>
       <c r="C15" s="9">
-        <v>17526260</v>
+        <v>22784138</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>23497500</v>
+        <v>30546750</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>16</v>
@@ -19944,18 +19913,24 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <f>A15/1000</f>
-        <v>18358.2</v>
-      </c>
-      <c r="B16" s="9"/>
+        <f>A15/60000</f>
+        <v>397.76100000000002</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ref="B16:E16" si="3">B15/60000</f>
+        <v>0</v>
+      </c>
       <c r="C16" s="9">
-        <f t="shared" ref="B16:E16" si="3">C15/1000</f>
-        <v>17526.259999999998</v>
-      </c>
-      <c r="D16" s="9"/>
+        <f t="shared" si="3"/>
+        <v>379.73563333333334</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>23497.5</v>
+        <v>509.11250000000001</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>16</v>
@@ -19980,17 +19955,17 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>A17/A16</f>
-        <v>0.5285376561972307</v>
+        <v>24.394045670641415</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8">
-        <f t="shared" ref="B18:E18" si="4">C17/C16</f>
-        <v>0.55003178088194515</v>
+        <f t="shared" ref="C18:E18" si="4">C17/C16</f>
+        <v>25.386082194551314</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8">
         <f t="shared" si="4"/>
-        <v>6.4347270986275129E-2</v>
+        <v>2.9698740455203909</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
@@ -21418,8 +21393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21733,12 +21708,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <f>A15/1000</f>
-        <v>1835.82</v>
-      </c>
-      <c r="B16" s="3">
-        <f>B15/1000</f>
-        <v>3584.0320000000002</v>
+        <f>A15/60000</f>
+        <v>30.597000000000001</v>
+      </c>
+      <c r="B16" s="9">
+        <f>B15/60000</f>
+        <v>59.733866666666664</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -21756,11 +21731,11 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <f>A17/A16</f>
-        <v>0.33118715342462768</v>
+        <v>19.871229205477661</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:D18" si="2">B17/B16</f>
-        <v>0.11132713100775886</v>
+        <f t="shared" ref="B18" si="2">B17/B16</f>
+        <v>6.6796278604655317</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -21778,7 +21753,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22171,23 +22146,29 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>790</v>
+        <v>2349750</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <f>A15/1000</f>
-        <v>1835.82</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <f t="shared" ref="B16:E16" si="3">C15/1000</f>
-        <v>1752.626</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+        <f>A15/60000</f>
+        <v>30.597000000000001</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ref="B16:E16" si="3">B15/60000</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
         <f t="shared" si="3"/>
-        <v>0.79</v>
+        <v>29.210433333333334</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="3"/>
+        <v>39.162500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -22200,24 +22181,23 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f t="shared" ref="B17:E17" si="4">E15/60</f>
-        <v>13.166666666666666</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <f>A17/A16</f>
-        <v>0.33118715342462768</v>
+        <v>19.871229205477661</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <f t="shared" ref="B18:E18" si="5">C17/C16</f>
-        <v>0.3491903007258822</v>
+        <f t="shared" ref="C18:E18" si="4">C17/C16</f>
+        <v>20.95141804355293</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>2.6045323970635175</v>
       </c>
     </row>
   </sheetData>
